--- a/output.xlsx
+++ b/output.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
   <si>
     <t>a1</t>
   </si>
@@ -24,11 +24,6 @@
   </si>
   <si>
     <t>c1</t>
-  </si>
-  <si>
-    <t>Comment: 作者:
-comment的批注啊a1
- by 作者</t>
   </si>
   <si>
     <t>a2</t>
@@ -118,6 +113,23 @@
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
+</file>
+
+<file path=xl/comments/comment1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Python</author>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="A1" shapeId="0">
+      <text>
+        <t>Comment: 作者:
+comment的批注啊a1
+ by 作者</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -409,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,90 +444,59 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" t="s"/>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" t="s"/>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s"/>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="A6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s"/>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+      <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s"/>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>